--- a/异常情况汇总表.xlsx
+++ b/异常情况汇总表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>前端缺失匹配项</t>
   </si>
@@ -37,81 +37,69 @@
     <t>类别</t>
   </si>
   <si>
-    <t>待匹配项</t>
-  </si>
-  <si>
-    <t>json与schama失配项</t>
-  </si>
-  <si>
-    <t>gas_price</t>
-  </si>
-  <si>
-    <t>价格/参数</t>
-  </si>
-  <si>
-    <t>ele_load</t>
-  </si>
-  <si>
-    <t>alpha_e</t>
-  </si>
-  <si>
-    <t>g_demand</t>
-  </si>
-  <si>
-    <t>c水比热容</t>
-  </si>
-  <si>
-    <t>q_demand</t>
-  </si>
-  <si>
-    <t>M未知</t>
-  </si>
-  <si>
-    <t>h_demand</t>
-  </si>
-  <si>
-    <t>epsilon</t>
-  </si>
-  <si>
-    <t>gtw1</t>
+    <t>未明确匹配项</t>
+  </si>
+  <si>
+    <t>模型缺失项</t>
+  </si>
+  <si>
+    <t>gas类</t>
+  </si>
+  <si>
+    <t>能量流</t>
+  </si>
+  <si>
+    <t>供热月份8760</t>
+  </si>
+  <si>
+    <t>hotwater_demand</t>
+  </si>
+  <si>
+    <t>家用热水</t>
+  </si>
+  <si>
+    <t>pv.se</t>
+  </si>
+  <si>
+    <t>设备参数</t>
+  </si>
+  <si>
+    <t>供冷月份8760</t>
+  </si>
+  <si>
+    <t>bat</t>
   </si>
   <si>
     <t>设备</t>
   </si>
   <si>
-    <t>gtw2</t>
-  </si>
-  <si>
-    <t>gtw3</t>
-  </si>
-  <si>
-    <t>gtw4</t>
-  </si>
-  <si>
-    <t>hyd</t>
-  </si>
-  <si>
-    <t>xb</t>
-  </si>
-  <si>
-    <t>pv.se</t>
-  </si>
-  <si>
-    <t>设备参数</t>
-  </si>
-  <si>
     <t>el.se</t>
   </si>
   <si>
+    <t>steam_storage</t>
+  </si>
+  <si>
+    <t>蒸汽存储</t>
+  </si>
+  <si>
     <t>wd.se</t>
   </si>
   <si>
     <t>sc.se</t>
   </si>
   <si>
+    <t>hp120.se</t>
+  </si>
+  <si>
     <t>co180.se</t>
   </si>
   <si>
+    <t>steam_storage.se</t>
+  </si>
+  <si>
+    <t>bat.se</t>
+  </si>
+  <si>
     <t>whp.se</t>
   </si>
   <si>
@@ -125,6 +113,33 @@
   </si>
   <si>
     <t>beta_whp(whp)</t>
+  </si>
+  <si>
+    <t>heat_resourceg(whp)</t>
+  </si>
+  <si>
+    <t>heat_resourceq(whp)</t>
+  </si>
+  <si>
+    <t>s_renewable_energy_max</t>
+  </si>
+  <si>
+    <t>可再生能源总装机最大面积</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>整体参数</t>
+  </si>
+  <si>
+    <t>other_investment</t>
   </si>
 </sst>
 </file>
@@ -137,7 +152,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,11 +178,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -634,137 +644,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,9 +785,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,16 +1098,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="28.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="26.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="38.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="32.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="21.5555555555556" customWidth="1"/>
@@ -1128,11 +1135,15 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1140,16 +1151,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1157,16 +1172,18 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1174,13 +1191,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1190,13 +1204,12 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
+      <c r="A6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>10</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1206,12 +1219,11 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>10</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1221,12 +1233,11 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>10</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1236,12 +1247,11 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>10</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1251,10 +1261,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1266,10 +1276,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1281,10 +1291,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1296,10 +1306,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1311,10 +1321,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1326,10 +1336,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1340,11 +1350,11 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
+      <c r="A16" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1355,11 +1365,11 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
-        <v>26</v>
+      <c r="A17" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1370,11 +1380,11 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1385,11 +1395,11 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1400,11 +1410,11 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1415,11 +1425,11 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>22</v>
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1429,13 +1439,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="22" spans="3:9">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1444,9 +1448,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="3:9">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1487,6 +1489,17 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
